--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Efnb2-Ephb2.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Efnb2-Ephb2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,55 +534,55 @@
         <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>29.1993297382896</v>
+        <v>31.910369</v>
       </c>
       <c r="H2">
-        <v>29.1993297382896</v>
+        <v>95.73110699999999</v>
       </c>
       <c r="I2">
-        <v>0.5691744623946816</v>
+        <v>0.579978174461379</v>
       </c>
       <c r="J2">
-        <v>0.5691744623946816</v>
+        <v>0.579978174461379</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>5.61943011543085</v>
+        <v>0.013267</v>
       </c>
       <c r="N2">
-        <v>5.61943011543085</v>
+        <v>0.039801</v>
       </c>
       <c r="O2">
-        <v>0.9258830254738862</v>
+        <v>0.002082344506138891</v>
       </c>
       <c r="P2">
-        <v>0.9258830254738862</v>
+        <v>0.002082344506138891</v>
       </c>
       <c r="Q2">
-        <v>164.0835928817402</v>
+        <v>0.423354865523</v>
       </c>
       <c r="R2">
-        <v>164.0835928817402</v>
+        <v>3.810193789707</v>
       </c>
       <c r="S2">
-        <v>0.5269889732644605</v>
+        <v>0.001207714365270116</v>
       </c>
       <c r="T2">
-        <v>0.5269889732644605</v>
+        <v>0.001207714365270116</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,60 +596,60 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>29.1993297382896</v>
+        <v>31.910369</v>
       </c>
       <c r="H3">
-        <v>29.1993297382896</v>
+        <v>95.73110699999999</v>
       </c>
       <c r="I3">
-        <v>0.5691744623946816</v>
+        <v>0.579978174461379</v>
       </c>
       <c r="J3">
-        <v>0.5691744623946816</v>
+        <v>0.579978174461379</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.44983561341725</v>
+        <v>5.792929999999999</v>
       </c>
       <c r="N3">
-        <v>0.44983561341725</v>
+        <v>17.37879</v>
       </c>
       <c r="O3">
-        <v>0.07411697452611378</v>
+        <v>0.9092391618261221</v>
       </c>
       <c r="P3">
-        <v>0.07411697452611378</v>
+        <v>0.9092391618261221</v>
       </c>
       <c r="Q3">
-        <v>13.13489840419605</v>
+        <v>184.85453389117</v>
       </c>
       <c r="R3">
-        <v>13.13489840419605</v>
+        <v>1663.69080502053</v>
       </c>
       <c r="S3">
-        <v>0.04218548913022113</v>
+        <v>0.5273388692247086</v>
       </c>
       <c r="T3">
-        <v>0.04218548913022113</v>
+        <v>0.5273388692247086</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>26</v>
@@ -658,60 +658,60 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>11.1979107735191</v>
+        <v>31.910369</v>
       </c>
       <c r="H4">
-        <v>11.1979107735191</v>
+        <v>95.73110699999999</v>
       </c>
       <c r="I4">
-        <v>0.218277779030783</v>
+        <v>0.579978174461379</v>
       </c>
       <c r="J4">
-        <v>0.218277779030783</v>
+        <v>0.579978174461379</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>5.61943011543085</v>
+        <v>0.05870933333333334</v>
       </c>
       <c r="N4">
-        <v>5.61943011543085</v>
+        <v>0.176128</v>
       </c>
       <c r="O4">
-        <v>0.9258830254738862</v>
+        <v>0.009214823074225033</v>
       </c>
       <c r="P4">
-        <v>0.9258830254738862</v>
+        <v>0.009214823074225033</v>
       </c>
       <c r="Q4">
-        <v>62.9258770306208</v>
+        <v>1.873436490410667</v>
       </c>
       <c r="R4">
-        <v>62.9258770306208</v>
+        <v>16.860928413696</v>
       </c>
       <c r="S4">
-        <v>0.2020996904427417</v>
+        <v>0.005344396264573627</v>
       </c>
       <c r="T4">
-        <v>0.2020996904427417</v>
+        <v>0.005344396264573627</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>26</v>
@@ -723,57 +723,57 @@
         <v>25</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>11.1979107735191</v>
+        <v>31.910369</v>
       </c>
       <c r="H5">
-        <v>11.1979107735191</v>
+        <v>95.73110699999999</v>
       </c>
       <c r="I5">
-        <v>0.218277779030783</v>
+        <v>0.579978174461379</v>
       </c>
       <c r="J5">
-        <v>0.218277779030783</v>
+        <v>0.579978174461379</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.44983561341725</v>
+        <v>0.5062776666666666</v>
       </c>
       <c r="N5">
-        <v>0.44983561341725</v>
+        <v>1.518833</v>
       </c>
       <c r="O5">
-        <v>0.07411697452611378</v>
+        <v>0.07946367059351396</v>
       </c>
       <c r="P5">
-        <v>0.07411697452611378</v>
+        <v>0.07946367059351396</v>
       </c>
       <c r="Q5">
-        <v>5.037219061797597</v>
+        <v>16.15550715979233</v>
       </c>
       <c r="R5">
-        <v>5.037219061797597</v>
+        <v>145.399564438131</v>
       </c>
       <c r="S5">
-        <v>0.01617808858804123</v>
+        <v>0.04608719460682659</v>
       </c>
       <c r="T5">
-        <v>0.01617808858804123</v>
+        <v>0.04608719460682659</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,60 +782,60 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.371096004150272</v>
+        <v>11.420477</v>
       </c>
       <c r="H6">
-        <v>0.371096004150272</v>
+        <v>34.261431</v>
       </c>
       <c r="I6">
-        <v>0.00723367181891409</v>
+        <v>0.2075697527013294</v>
       </c>
       <c r="J6">
-        <v>0.00723367181891409</v>
+        <v>0.2075697527013294</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>5.61943011543085</v>
+        <v>0.013267</v>
       </c>
       <c r="N6">
-        <v>5.61943011543085</v>
+        <v>0.039801</v>
       </c>
       <c r="O6">
-        <v>0.9258830254738862</v>
+        <v>0.002082344506138891</v>
       </c>
       <c r="P6">
-        <v>0.9258830254738862</v>
+        <v>0.002082344506138891</v>
       </c>
       <c r="Q6">
-        <v>2.08534806143809</v>
+        <v>0.151515468359</v>
       </c>
       <c r="R6">
-        <v>2.08534806143809</v>
+        <v>1.363639215231</v>
       </c>
       <c r="S6">
-        <v>0.006697533948981367</v>
+        <v>0.0004322317341782214</v>
       </c>
       <c r="T6">
-        <v>0.006697533948981367</v>
+        <v>0.0004322317341782214</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -844,122 +844,122 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.371096004150272</v>
+        <v>11.420477</v>
       </c>
       <c r="H7">
-        <v>0.371096004150272</v>
+        <v>34.261431</v>
       </c>
       <c r="I7">
-        <v>0.00723367181891409</v>
+        <v>0.2075697527013294</v>
       </c>
       <c r="J7">
-        <v>0.00723367181891409</v>
+        <v>0.2075697527013294</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.44983561341725</v>
+        <v>5.792929999999999</v>
       </c>
       <c r="N7">
-        <v>0.44983561341725</v>
+        <v>17.37879</v>
       </c>
       <c r="O7">
-        <v>0.07411697452611378</v>
+        <v>0.9092391618261221</v>
       </c>
       <c r="P7">
-        <v>0.07411697452611378</v>
+        <v>0.9092391618261221</v>
       </c>
       <c r="Q7">
-        <v>0.1669321986636279</v>
+        <v>66.15802382760999</v>
       </c>
       <c r="R7">
-        <v>0.1669321986636279</v>
+        <v>595.42221444849</v>
       </c>
       <c r="S7">
-        <v>0.0005361378699327228</v>
+        <v>0.1887305479666121</v>
       </c>
       <c r="T7">
-        <v>0.0005361378699327228</v>
+        <v>0.1887305479666121</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
         <v>23</v>
       </c>
-      <c r="B8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" t="s">
-        <v>21</v>
-      </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.387740711516154</v>
+        <v>11.420477</v>
       </c>
       <c r="H8">
-        <v>0.387740711516154</v>
+        <v>34.261431</v>
       </c>
       <c r="I8">
-        <v>0.007558122498145594</v>
+        <v>0.2075697527013294</v>
       </c>
       <c r="J8">
-        <v>0.007558122498145594</v>
+        <v>0.2075697527013294</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>5.61943011543085</v>
+        <v>0.05870933333333334</v>
       </c>
       <c r="N8">
-        <v>5.61943011543085</v>
+        <v>0.176128</v>
       </c>
       <c r="O8">
-        <v>0.9258830254738862</v>
+        <v>0.009214823074225033</v>
       </c>
       <c r="P8">
-        <v>0.9258830254738862</v>
+        <v>0.009214823074225033</v>
       </c>
       <c r="Q8">
-        <v>2.178881831272461</v>
+        <v>0.6704885910186666</v>
       </c>
       <c r="R8">
-        <v>2.178881831272461</v>
+        <v>6.034397319168001</v>
       </c>
       <c r="S8">
-        <v>0.00699793732548529</v>
+        <v>0.001912718546703394</v>
       </c>
       <c r="T8">
-        <v>0.00699793732548529</v>
+        <v>0.001912718546703394</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>26</v>
@@ -971,57 +971,57 @@
         <v>25</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.387740711516154</v>
+        <v>11.420477</v>
       </c>
       <c r="H9">
-        <v>0.387740711516154</v>
+        <v>34.261431</v>
       </c>
       <c r="I9">
-        <v>0.007558122498145594</v>
+        <v>0.2075697527013294</v>
       </c>
       <c r="J9">
-        <v>0.007558122498145594</v>
+        <v>0.2075697527013294</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.44983561341725</v>
+        <v>0.5062776666666666</v>
       </c>
       <c r="N9">
-        <v>0.44983561341725</v>
+        <v>1.518833</v>
       </c>
       <c r="O9">
-        <v>0.07411697452611378</v>
+        <v>0.07946367059351396</v>
       </c>
       <c r="P9">
-        <v>0.07411697452611378</v>
+        <v>0.07946367059351396</v>
       </c>
       <c r="Q9">
-        <v>0.1744195808117101</v>
+        <v>5.781932447780333</v>
       </c>
       <c r="R9">
-        <v>0.1744195808117101</v>
+        <v>52.037392030023</v>
       </c>
       <c r="S9">
-        <v>0.0005601851726603044</v>
+        <v>0.01649425445383559</v>
       </c>
       <c r="T9">
-        <v>0.0005601851726603044</v>
+        <v>0.01649425445383559</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
@@ -1030,60 +1030,60 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.616499757877066</v>
+        <v>0.6836493333333333</v>
       </c>
       <c r="H10">
-        <v>0.616499757877066</v>
+        <v>2.050948</v>
       </c>
       <c r="I10">
-        <v>0.01201725934811423</v>
+        <v>0.01242548126969028</v>
       </c>
       <c r="J10">
-        <v>0.01201725934811423</v>
+        <v>0.01242548126969028</v>
       </c>
       <c r="K10">
         <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>5.61943011543085</v>
+        <v>0.013267</v>
       </c>
       <c r="N10">
-        <v>5.61943011543085</v>
+        <v>0.039801</v>
       </c>
       <c r="O10">
-        <v>0.9258830254738862</v>
+        <v>0.002082344506138891</v>
       </c>
       <c r="P10">
-        <v>0.9258830254738862</v>
+        <v>0.002082344506138891</v>
       </c>
       <c r="Q10">
-        <v>3.464377305570212</v>
+        <v>0.009069975705333334</v>
       </c>
       <c r="R10">
-        <v>3.464377305570212</v>
+        <v>0.081629781348</v>
       </c>
       <c r="S10">
-        <v>0.01112657644313634</v>
+        <v>2.587413265807125E-05</v>
       </c>
       <c r="T10">
-        <v>0.01112657644313634</v>
+        <v>2.587413265807125E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,60 +1092,60 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.616499757877066</v>
+        <v>0.6836493333333333</v>
       </c>
       <c r="H11">
-        <v>0.616499757877066</v>
+        <v>2.050948</v>
       </c>
       <c r="I11">
-        <v>0.01201725934811423</v>
+        <v>0.01242548126969028</v>
       </c>
       <c r="J11">
-        <v>0.01201725934811423</v>
+        <v>0.01242548126969028</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.44983561341725</v>
+        <v>5.792929999999999</v>
       </c>
       <c r="N11">
-        <v>0.44983561341725</v>
+        <v>17.37879</v>
       </c>
       <c r="O11">
-        <v>0.07411697452611378</v>
+        <v>0.9092391618261221</v>
       </c>
       <c r="P11">
-        <v>0.07411697452611378</v>
+        <v>0.9092391618261221</v>
       </c>
       <c r="Q11">
-        <v>0.2773235467562161</v>
+        <v>3.960332732546666</v>
       </c>
       <c r="R11">
-        <v>0.2773235467562161</v>
+        <v>35.64299459292</v>
       </c>
       <c r="S11">
-        <v>0.0008906829049778849</v>
+        <v>0.01129773417493937</v>
       </c>
       <c r="T11">
-        <v>0.0008906829049778849</v>
+        <v>0.01129773417493937</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,60 +1154,60 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>9.52861740667934</v>
+        <v>0.6836493333333333</v>
       </c>
       <c r="H12">
-        <v>9.52861740667934</v>
+        <v>2.050948</v>
       </c>
       <c r="I12">
-        <v>0.1857387049093616</v>
+        <v>0.01242548126969028</v>
       </c>
       <c r="J12">
-        <v>0.1857387049093616</v>
+        <v>0.01242548126969028</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>5.61943011543085</v>
+        <v>0.05870933333333334</v>
       </c>
       <c r="N12">
-        <v>5.61943011543085</v>
+        <v>0.176128</v>
       </c>
       <c r="O12">
-        <v>0.9258830254738862</v>
+        <v>0.009214823074225033</v>
       </c>
       <c r="P12">
-        <v>0.9258830254738862</v>
+        <v>0.009214823074225033</v>
       </c>
       <c r="Q12">
-        <v>53.54539961351249</v>
+        <v>0.04013659659377778</v>
       </c>
       <c r="R12">
-        <v>53.54539961351249</v>
+        <v>0.361229369344</v>
       </c>
       <c r="S12">
-        <v>0.1719723140490811</v>
+        <v>0.000114498611512293</v>
       </c>
       <c r="T12">
-        <v>0.1719723140490811</v>
+        <v>0.000114498611512293</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1219,52 +1219,796 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>9.52861740667934</v>
+        <v>0.6836493333333333</v>
       </c>
       <c r="H13">
-        <v>9.52861740667934</v>
+        <v>2.050948</v>
       </c>
       <c r="I13">
-        <v>0.1857387049093616</v>
+        <v>0.01242548126969028</v>
       </c>
       <c r="J13">
-        <v>0.1857387049093616</v>
+        <v>0.01242548126969028</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.44983561341725</v>
+        <v>0.5062776666666666</v>
       </c>
       <c r="N13">
-        <v>0.44983561341725</v>
+        <v>1.518833</v>
       </c>
       <c r="O13">
-        <v>0.07411697452611378</v>
+        <v>0.07946367059351396</v>
       </c>
       <c r="P13">
-        <v>0.07411697452611378</v>
+        <v>0.07946367059351396</v>
       </c>
       <c r="Q13">
-        <v>4.286311456151886</v>
+        <v>0.3461163892982222</v>
       </c>
       <c r="R13">
-        <v>4.286311456151886</v>
+        <v>3.115047503684</v>
       </c>
       <c r="S13">
-        <v>0.01376639086028052</v>
+        <v>0.0009873743505805462</v>
       </c>
       <c r="T13">
-        <v>0.01376639086028052</v>
+        <v>0.0009873743505805462</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.4491346666666667</v>
+      </c>
+      <c r="H14">
+        <v>1.347404</v>
+      </c>
+      <c r="I14">
+        <v>0.00816312415756312</v>
+      </c>
+      <c r="J14">
+        <v>0.00816312415756312</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M14">
+        <v>0.013267</v>
+      </c>
+      <c r="N14">
+        <v>0.039801</v>
+      </c>
+      <c r="O14">
+        <v>0.002082344506138891</v>
+      </c>
+      <c r="P14">
+        <v>0.002082344506138891</v>
+      </c>
+      <c r="Q14">
+        <v>0.005958669622666667</v>
+      </c>
+      <c r="R14">
+        <v>0.05362802660400001</v>
+      </c>
+      <c r="S14">
+        <v>1.699843674243122E-05</v>
+      </c>
+      <c r="T14">
+        <v>1.699843674243122E-05</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.4491346666666667</v>
+      </c>
+      <c r="H15">
+        <v>1.347404</v>
+      </c>
+      <c r="I15">
+        <v>0.00816312415756312</v>
+      </c>
+      <c r="J15">
+        <v>0.00816312415756312</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>5.792929999999999</v>
+      </c>
+      <c r="N15">
+        <v>17.37879</v>
+      </c>
+      <c r="O15">
+        <v>0.9092391618261221</v>
+      </c>
+      <c r="P15">
+        <v>0.9092391618261221</v>
+      </c>
+      <c r="Q15">
+        <v>2.601805684573333</v>
+      </c>
+      <c r="R15">
+        <v>23.41625116116</v>
+      </c>
+      <c r="S15">
+        <v>0.00742223216690526</v>
+      </c>
+      <c r="T15">
+        <v>0.00742223216690526</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.4491346666666667</v>
+      </c>
+      <c r="H16">
+        <v>1.347404</v>
+      </c>
+      <c r="I16">
+        <v>0.00816312415756312</v>
+      </c>
+      <c r="J16">
+        <v>0.00816312415756312</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M16">
+        <v>0.05870933333333334</v>
+      </c>
+      <c r="N16">
+        <v>0.176128</v>
+      </c>
+      <c r="O16">
+        <v>0.009214823074225033</v>
+      </c>
+      <c r="P16">
+        <v>0.009214823074225033</v>
+      </c>
+      <c r="Q16">
+        <v>0.02636839685688889</v>
+      </c>
+      <c r="R16">
+        <v>0.237315571712</v>
+      </c>
+      <c r="S16">
+        <v>7.522174484487641E-05</v>
+      </c>
+      <c r="T16">
+        <v>7.522174484487641E-05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.4491346666666667</v>
+      </c>
+      <c r="H17">
+        <v>1.347404</v>
+      </c>
+      <c r="I17">
+        <v>0.00816312415756312</v>
+      </c>
+      <c r="J17">
+        <v>0.00816312415756312</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.5062776666666666</v>
+      </c>
+      <c r="N17">
+        <v>1.518833</v>
+      </c>
+      <c r="O17">
+        <v>0.07946367059351396</v>
+      </c>
+      <c r="P17">
+        <v>0.07946367059351396</v>
+      </c>
+      <c r="Q17">
+        <v>0.2273868510591111</v>
+      </c>
+      <c r="R17">
+        <v>2.046481659532</v>
+      </c>
+      <c r="S17">
+        <v>0.0006486718090705518</v>
+      </c>
+      <c r="T17">
+        <v>0.0006486718090705518</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0.6568320000000001</v>
+      </c>
+      <c r="H18">
+        <v>1.970496</v>
+      </c>
+      <c r="I18">
+        <v>0.01193807017047708</v>
+      </c>
+      <c r="J18">
+        <v>0.01193807017047708</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M18">
+        <v>0.013267</v>
+      </c>
+      <c r="N18">
+        <v>0.039801</v>
+      </c>
+      <c r="O18">
+        <v>0.002082344506138891</v>
+      </c>
+      <c r="P18">
+        <v>0.002082344506138891</v>
+      </c>
+      <c r="Q18">
+        <v>0.008714190144000001</v>
+      </c>
+      <c r="R18">
+        <v>0.07842771129600001</v>
+      </c>
+      <c r="S18">
+        <v>2.485917483339352E-05</v>
+      </c>
+      <c r="T18">
+        <v>2.485917483339352E-05</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.6568320000000001</v>
+      </c>
+      <c r="H19">
+        <v>1.970496</v>
+      </c>
+      <c r="I19">
+        <v>0.01193807017047708</v>
+      </c>
+      <c r="J19">
+        <v>0.01193807017047708</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>5.792929999999999</v>
+      </c>
+      <c r="N19">
+        <v>17.37879</v>
+      </c>
+      <c r="O19">
+        <v>0.9092391618261221</v>
+      </c>
+      <c r="P19">
+        <v>0.9092391618261221</v>
+      </c>
+      <c r="Q19">
+        <v>3.80498179776</v>
+      </c>
+      <c r="R19">
+        <v>34.24483617984</v>
+      </c>
+      <c r="S19">
+        <v>0.01085456091562601</v>
+      </c>
+      <c r="T19">
+        <v>0.01085456091562601</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0.6568320000000001</v>
+      </c>
+      <c r="H20">
+        <v>1.970496</v>
+      </c>
+      <c r="I20">
+        <v>0.01193807017047708</v>
+      </c>
+      <c r="J20">
+        <v>0.01193807017047708</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M20">
+        <v>0.05870933333333334</v>
+      </c>
+      <c r="N20">
+        <v>0.176128</v>
+      </c>
+      <c r="O20">
+        <v>0.009214823074225033</v>
+      </c>
+      <c r="P20">
+        <v>0.009214823074225033</v>
+      </c>
+      <c r="Q20">
+        <v>0.038562168832</v>
+      </c>
+      <c r="R20">
+        <v>0.3470595194880001</v>
+      </c>
+      <c r="S20">
+        <v>0.0001100072044686298</v>
+      </c>
+      <c r="T20">
+        <v>0.0001100072044686298</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.6568320000000001</v>
+      </c>
+      <c r="H21">
+        <v>1.970496</v>
+      </c>
+      <c r="I21">
+        <v>0.01193807017047708</v>
+      </c>
+      <c r="J21">
+        <v>0.01193807017047708</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0.5062776666666666</v>
+      </c>
+      <c r="N21">
+        <v>1.518833</v>
+      </c>
+      <c r="O21">
+        <v>0.07946367059351396</v>
+      </c>
+      <c r="P21">
+        <v>0.07946367059351396</v>
+      </c>
+      <c r="Q21">
+        <v>0.332539372352</v>
+      </c>
+      <c r="R21">
+        <v>2.992854351168</v>
+      </c>
+      <c r="S21">
+        <v>0.0009486428755490458</v>
+      </c>
+      <c r="T21">
+        <v>0.0009486428755490458</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>9.899486</v>
+      </c>
+      <c r="H22">
+        <v>29.698458</v>
+      </c>
+      <c r="I22">
+        <v>0.1799253972395612</v>
+      </c>
+      <c r="J22">
+        <v>0.1799253972395612</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M22">
+        <v>0.013267</v>
+      </c>
+      <c r="N22">
+        <v>0.039801</v>
+      </c>
+      <c r="O22">
+        <v>0.002082344506138891</v>
+      </c>
+      <c r="P22">
+        <v>0.002082344506138891</v>
+      </c>
+      <c r="Q22">
+        <v>0.131336480762</v>
+      </c>
+      <c r="R22">
+        <v>1.182028326858</v>
+      </c>
+      <c r="S22">
+        <v>0.0003746666624566578</v>
+      </c>
+      <c r="T22">
+        <v>0.0003746666624566578</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>9.899486</v>
+      </c>
+      <c r="H23">
+        <v>29.698458</v>
+      </c>
+      <c r="I23">
+        <v>0.1799253972395612</v>
+      </c>
+      <c r="J23">
+        <v>0.1799253972395612</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>5.792929999999999</v>
+      </c>
+      <c r="N23">
+        <v>17.37879</v>
+      </c>
+      <c r="O23">
+        <v>0.9092391618261221</v>
+      </c>
+      <c r="P23">
+        <v>0.9092391618261221</v>
+      </c>
+      <c r="Q23">
+        <v>57.34702943397999</v>
+      </c>
+      <c r="R23">
+        <v>516.12326490582</v>
+      </c>
+      <c r="S23">
+        <v>0.1635952173773307</v>
+      </c>
+      <c r="T23">
+        <v>0.1635952173773307</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>9.899486</v>
+      </c>
+      <c r="H24">
+        <v>29.698458</v>
+      </c>
+      <c r="I24">
+        <v>0.1799253972395612</v>
+      </c>
+      <c r="J24">
+        <v>0.1799253972395612</v>
+      </c>
+      <c r="K24">
+        <v>2</v>
+      </c>
+      <c r="L24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M24">
+        <v>0.05870933333333334</v>
+      </c>
+      <c r="N24">
+        <v>0.176128</v>
+      </c>
+      <c r="O24">
+        <v>0.009214823074225033</v>
+      </c>
+      <c r="P24">
+        <v>0.009214823074225033</v>
+      </c>
+      <c r="Q24">
+        <v>0.5811922234026666</v>
+      </c>
+      <c r="R24">
+        <v>5.230730010624</v>
+      </c>
+      <c r="S24">
+        <v>0.001657980702122214</v>
+      </c>
+      <c r="T24">
+        <v>0.001657980702122214</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>9.899486</v>
+      </c>
+      <c r="H25">
+        <v>29.698458</v>
+      </c>
+      <c r="I25">
+        <v>0.1799253972395612</v>
+      </c>
+      <c r="J25">
+        <v>0.1799253972395612</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>0.5062776666666666</v>
+      </c>
+      <c r="N25">
+        <v>1.518833</v>
+      </c>
+      <c r="O25">
+        <v>0.07946367059351396</v>
+      </c>
+      <c r="P25">
+        <v>0.07946367059351396</v>
+      </c>
+      <c r="Q25">
+        <v>5.011888673279333</v>
+      </c>
+      <c r="R25">
+        <v>45.10699805951399</v>
+      </c>
+      <c r="S25">
+        <v>0.01429753249765164</v>
+      </c>
+      <c r="T25">
+        <v>0.01429753249765164</v>
       </c>
     </row>
   </sheetData>
